--- a/BrandNames.xlsx
+++ b/BrandNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMonaheng\IdeaProjects\Examination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DD0EED-C146-4C99-9421-7289708E3ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C624CCD-D07C-41A4-AF4F-635090192890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,42 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Brands</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Energizer Recharge</t>
+  </si>
+  <si>
+    <t>Guess</t>
+  </si>
   <si>
     <t>RCT</t>
   </si>
   <si>
-    <t>Brands</t>
-  </si>
-  <si>
-    <t>BestWay</t>
+    <t>Iphone</t>
   </si>
   <si>
     <t>Casals</t>
   </si>
   <si>
-    <t>Guess</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Iphone</t>
+    <t>Hisense</t>
+  </si>
+  <si>
+    <t>Kettle</t>
+  </si>
+  <si>
+    <t>Barbie Doll</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>Diesel Only Brave</t>
   </si>
   <si>
-    <t>Basic Homes</t>
-  </si>
-  <si>
-    <t>Hisense</t>
-  </si>
-  <si>
-    <t>Les Dolls</t>
-  </si>
-  <si>
-    <t>Energizer Recharge</t>
+    <t>CFGHHFHGF</t>
   </si>
 </sst>
 </file>
@@ -104,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,26 +394,26 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -417,7 +421,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -425,7 +429,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -433,7 +437,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -441,50 +445,50 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
